--- a/bh3/497174865754972241_2021-03-01_18-52-24.xlsx
+++ b/bh3/497174865754972241_2021-03-01_18-52-24.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:22:22</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76553240741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4211968147</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-03 05:00:53</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44258.20894675926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -692,10 +704,8 @@
           <t>4208889342</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-02 14:14:26</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44257.59335648148</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -767,10 +777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-02 12:46:21</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44257.5321875</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-02 12:21:07</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44257.51466435185</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>4208398391</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-02 12:07:05</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44257.50491898148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -982,10 +986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-02 10:01:35</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44257.4177662037</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1061,10 +1063,8 @@
           <t>4207466044</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-02 03:06:03</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44257.12920138889</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1132,10 +1132,8 @@
           <t>4207466044</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-02 02:21:16</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44257.09810185185</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1199,10 +1197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-02 01:05:06</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44257.04520833334</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1270,10 +1266,8 @@
           <t>4207093961</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-02 00:06:20</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44257.00439814815</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1349,10 +1343,8 @@
           <t>4207086436</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-02 00:03:24</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44257.00236111111</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1428,10 +1420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:57:22</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44256.9981712963</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
@@ -1503,10 +1493,8 @@
           <t>4207034981</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:53:55</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44256.99577546296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1586,10 +1574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:50:12</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44256.99319444445</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1661,10 +1647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:47:57</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44256.99163194445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1732,10 +1716,8 @@
           <t>4205855616</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:26:28</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44256.97671296296</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1811,10 +1793,8 @@
           <t>4206877858</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:22:38</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44256.97405092593</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1890,10 +1870,8 @@
           <t>4206124607</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-01 23:12:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44256.96724537037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1957,10 +1935,8 @@
           <t>4206738323</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:56:40</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44256.95601851852</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -2032,10 +2008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:52:11</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44256.95290509259</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2111,10 +2085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:44:10</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44256.94733796296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2186,10 +2158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:43:22</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44256.94678240741</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2265,10 +2235,8 @@
           <t>4206605039</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:32:03</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44256.93892361111</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2344,10 +2312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:30:47</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44256.93804398148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2419,10 +2385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:24:01</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44256.9333449074</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2498,10 +2462,8 @@
           <t>4206192206</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:21:20</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44256.93148148148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2569,10 +2531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:18:33</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44256.92954861111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2636,10 +2596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:18:02</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44256.92918981481</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2711,10 +2669,8 @@
           <t>4206497288</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:13:20</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44256.92592592593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2782,10 +2738,8 @@
           <t>4205649915</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:12:09</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44256.92510416666</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2849,10 +2803,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-01 22:10:32</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44256.92398148148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2916,10 +2868,8 @@
           <t>4206192206</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:58:22</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44256.91553240741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2987,10 +2937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:53:21</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44256.91204861111</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
@@ -3058,10 +3006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:28:56</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44256.89509259259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3125,10 +3071,8 @@
           <t>4206234363</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:24:15</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44256.89184027778</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3200,10 +3144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:23:27</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44256.89128472222</v>
       </c>
       <c r="I38" t="n">
         <v>8</v>
@@ -3272,10 +3214,8 @@
           <t>4205989721</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:16:50</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44256.88668981481</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3347,10 +3287,8 @@
           <t>4206192206</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:15:37</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44256.88584490741</v>
       </c>
       <c r="I40" t="n">
         <v>8</v>
@@ -3418,10 +3356,8 @@
           <t>4206186969</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:14:13</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44256.88487268519</v>
       </c>
       <c r="I41" t="n">
         <v>13</v>
@@ -3489,10 +3425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:13:12</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44256.88416666666</v>
       </c>
       <c r="I42" t="n">
         <v>24</v>
@@ -3556,10 +3490,8 @@
           <t>4206167918</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:10:35</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44256.88234953704</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3623,10 +3555,8 @@
           <t>4206148491</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:07:47</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44256.88040509259</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3694,10 +3624,8 @@
           <t>4206139323</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:05:14</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44256.87863425926</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
@@ -3765,10 +3693,8 @@
           <t>4205722444</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:04:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44256.87825231482</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3840,10 +3766,8 @@
           <t>4205649915</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:04:35</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44256.87818287037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3912,10 +3836,8 @@
           <t>4205649915</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:02:58</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44256.87706018519</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3983,10 +3905,8 @@
           <t>4206124607</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:02:29</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44256.87672453704</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4058,10 +3978,8 @@
           <t>4205722444</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:02:17</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44256.87658564815</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4129,10 +4047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-01 21:01:39</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44256.87614583333</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4192,10 +4108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:54:09</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44256.8709375</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
@@ -4263,10 +4177,8 @@
           <t>4205649915</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:42:27</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44256.8628125</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4335,10 +4247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:41:36</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44256.86222222223</v>
       </c>
       <c r="I54" t="n">
         <v>26</v>
@@ -4406,10 +4316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:41:13</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44256.86195601852</v>
       </c>
       <c r="I55" t="n">
         <v>32</v>
@@ -4481,10 +4389,8 @@
           <t>4205649915</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:40:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44256.86118055556</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4552,10 +4458,8 @@
           <t>4206011182</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:38:25</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44256.86001157408</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4631,10 +4535,8 @@
           <t>4206005795</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:38:05</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44256.85978009259</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4710,10 +4612,8 @@
           <t>4205989721</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:36:29</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44256.85866898148</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4789,10 +4689,8 @@
           <t>4205722444</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:35:51</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44256.85822916667</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4868,10 +4766,8 @@
           <t>4205988460</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:35:46</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44256.8581712963</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4947,10 +4843,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:35:44</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44256.85814814815</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5022,10 +4916,8 @@
           <t>4205839441</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:32:33</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44256.8559375</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5101,10 +4993,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:32:32</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44256.85592592593</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5176,10 +5066,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:30:40</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44256.85462962963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5251,10 +5139,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:29:41</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44256.85394675926</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5326,10 +5212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:27:24</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44256.85236111111</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5395,10 +5279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:27:20</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44256.85231481482</v>
       </c>
       <c r="I68" t="n">
         <v>179</v>
@@ -5462,10 +5344,8 @@
           <t>4205649915</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:18:10</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44256.84594907407</v>
       </c>
       <c r="I69" t="n">
         <v>6</v>
@@ -5534,10 +5414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:11:58</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44256.84164351852</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5613,10 +5491,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:11:11</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44256.84109953704</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5692,10 +5568,8 @@
           <t>4205855616</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:06:57</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44256.83815972223</v>
       </c>
       <c r="I72" t="n">
         <v>31</v>
@@ -5763,10 +5637,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:06:46</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44256.83803240741</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5838,10 +5710,8 @@
           <t>4205847115</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:05:50</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44256.83738425926</v>
       </c>
       <c r="I74" t="n">
         <v>4</v>
@@ -5909,10 +5779,8 @@
           <t>4205839441</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:05:11</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44256.83693287037</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5980,10 +5848,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:02:57</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44256.83538194445</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6055,10 +5921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:02:46</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44256.83525462963</v>
       </c>
       <c r="I77" t="n">
         <v>83</v>
@@ -6130,10 +5994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:59:53</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44256.83325231481</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6201,10 +6063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:58:35</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44256.83234953704</v>
       </c>
       <c r="I79" t="n">
         <v>288</v>
@@ -6280,10 +6140,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:58:11</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44256.83207175926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6355,10 +6213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:58:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44256.83200231481</v>
       </c>
       <c r="I81" t="n">
         <v>15</v>
@@ -6426,10 +6282,8 @@
           <t>4205802622</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:57:03</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44256.83128472222</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6501,10 +6355,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:55:36</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44256.83027777778</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6576,10 +6428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:55:02</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44256.82988425926</v>
       </c>
       <c r="I84" t="n">
         <v>8</v>
@@ -6656,10 +6506,8 @@
           <t>4205722444</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:54:10</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44256.82928240741</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6731,10 +6579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:53:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44256.82903935185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6794,10 +6640,8 @@
           <t>4205786136</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:53:10</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44256.82858796296</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6873,10 +6717,8 @@
           <t>4205781981</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:52:44</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44256.82828703704</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6944,10 +6786,8 @@
           <t>4205780556</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:51:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44256.82769675926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7015,10 +6855,8 @@
           <t>4205780028</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:51:34</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44256.82747685185</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7090,10 +6928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:51:27</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44256.82739583333</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7165,10 +7001,8 @@
           <t>4205722444</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:49:10</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44256.82581018518</v>
       </c>
       <c r="I92" t="n">
         <v>10</v>
@@ -7236,10 +7070,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:48:28</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44256.82532407407</v>
       </c>
       <c r="I93" t="n">
         <v>10</v>
@@ -7316,10 +7148,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:47:17</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44256.82450231481</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7391,10 +7221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:46:53</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44256.82422453703</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7466,10 +7294,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:45:10</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44256.82303240741</v>
       </c>
       <c r="I96" t="n">
         <v>7</v>
@@ -7545,10 +7371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:45:03</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44256.82295138889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7620,10 +7444,8 @@
           <t>4205740483</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:43:27</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44256.82184027778</v>
       </c>
       <c r="I98" t="n">
         <v>10</v>
@@ -7699,10 +7521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:42:12</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44256.82097222222</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7778,10 +7598,8 @@
           <t>4205722444</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:41:01</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44256.82015046296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7853,10 +7671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:40:16</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44256.81962962963</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7932,10 +7748,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:40:07</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44256.81952546296</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8007,10 +7821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:39:50</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44256.81932870371</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8074,10 +7886,8 @@
           <t>4205706406</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:37:15</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44256.81753472222</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8155,10 +7965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:36:07</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44256.81674768519</v>
       </c>
       <c r="I105" t="n">
         <v>9</v>
@@ -8234,10 +8042,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:35:49</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44256.81653935185</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8309,10 +8115,8 @@
           <t>4205695884</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:33:54</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44256.81520833333</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8388,10 +8192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:33:43</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44256.81508101852</v>
       </c>
       <c r="I108" t="n">
         <v>78</v>
@@ -8463,10 +8265,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:32:54</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44256.81451388889</v>
       </c>
       <c r="I109" t="n">
         <v>5</v>
@@ -8534,10 +8334,8 @@
           <t>4205687984</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:32:50</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44256.81446759259</v>
       </c>
       <c r="I110" t="n">
         <v>6</v>
@@ -8605,10 +8403,8 @@
           <t>4205681326</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:30:55</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44256.81313657408</v>
       </c>
       <c r="I111" t="n">
         <v>8</v>
@@ -8672,10 +8468,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:28:50</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44256.81168981481</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -8743,10 +8537,8 @@
           <t>4205670945</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:28:21</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44256.81135416667</v>
       </c>
       <c r="I113" t="n">
         <v>10</v>
@@ -8810,10 +8602,8 @@
           <t>4205649915</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:26:43</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44256.81021990741</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8881,10 +8671,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:26:16</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44256.80990740741</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8956,10 +8744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:25:33</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44256.80940972222</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9027,10 +8813,8 @@
           <t>4205651693</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:24:40</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44256.8087962963</v>
       </c>
       <c r="I117" t="n">
         <v>5</v>
@@ -9098,10 +8882,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:22:11</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44256.80707175926</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -9169,10 +8951,8 @@
           <t>4205623665</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:19:43</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44256.80535879629</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9240,10 +9020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:19:32</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44256.80523148148</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9311,10 +9089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:17:51</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44256.8040625</v>
       </c>
       <c r="I121" t="n">
         <v>52</v>
@@ -9390,10 +9166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:17:12</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44256.80361111111</v>
       </c>
       <c r="I122" t="n">
         <v>51</v>
@@ -9465,10 +9239,8 @@
           <t>4205612807</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:17:04</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44256.80351851852</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9528,10 +9300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:15:31</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44256.80244212963</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9603,10 +9373,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:14:17</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44256.80158564815</v>
       </c>
       <c r="I125" t="n">
         <v>6</v>
@@ -9678,10 +9446,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:12:58</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44256.8006712963</v>
       </c>
       <c r="I126" t="n">
         <v>38</v>
@@ -9750,10 +9516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:12:16</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44256.80018518519</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9829,10 +9593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:10:49</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44256.79917824074</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9908,10 +9670,8 @@
           <t>4205582217</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:10:32</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44256.79898148148</v>
       </c>
       <c r="I129" t="n">
         <v>10</v>
@@ -9983,10 +9743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:10:31</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44256.79896990741</v>
       </c>
       <c r="I130" t="n">
         <v>10</v>
@@ -10054,10 +9812,8 @@
           <t>4205574183</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:10:00</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44256.79861111111</v>
       </c>
       <c r="I131" t="n">
         <v>5</v>
@@ -10125,10 +9881,8 @@
           <t>4205569423</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:08:51</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44256.7978125</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -10196,10 +9950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:08:40</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44256.79768518519</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10278,10 +10030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:08:10</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44256.79733796296</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10357,10 +10107,8 @@
           <t>4205568238</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:08:08</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44256.79731481482</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10428,10 +10176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:07:53</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44256.7971412037</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -10503,10 +10249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:07:22</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44256.79678240741</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10574,10 +10318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:07:22</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44256.79678240741</v>
       </c>
       <c r="I138" t="n">
         <v>5</v>
@@ -10649,10 +10391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:07:12</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44256.79666666667</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10724,10 +10464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:07:07</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44256.7966087963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10795,10 +10533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:05:49</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44256.79570601852</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10863,10 +10599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:05:28</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44256.79546296296</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10930,10 +10664,8 @@
           <t>4205552470</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:04:35</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44256.79484953704</v>
       </c>
       <c r="I143" t="n">
         <v>26</v>
@@ -11009,10 +10741,8 @@
           <t>4205548563</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:04:17</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44256.79464120371</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11085,10 +10815,8 @@
           <t>4205555060</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:04:10</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44256.79456018518</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11160,10 +10888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:03:54</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44256.794375</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11239,10 +10965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:03:25</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44256.79403935185</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11306,10 +11030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:03:12</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44256.79388888889</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11382,10 +11104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:02:56</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44256.7937037037</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11461,10 +11181,8 @@
           <t>4205539013</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:02:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44256.79341435185</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -11536,10 +11254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:02:30</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44256.79340277778</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -11607,10 +11323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:01:45</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44256.79288194444</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11678,10 +11392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-01 19:01:23</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44256.79262731481</v>
       </c>
       <c r="I153" t="n">
         <v>10</v>
@@ -11753,10 +11465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:59:48</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44256.79152777778</v>
       </c>
       <c r="I154" t="n">
         <v>282</v>
@@ -11825,10 +11535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:59:23</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44256.79123842593</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11896,10 +11604,8 @@
           <t>4205511532</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:59:08</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44256.79106481482</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11975,10 +11681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:59:07</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44256.79105324074</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12055,10 +11759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:58:55</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44256.79091435186</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12126,10 +11828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:58:41</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44256.79075231482</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12193,10 +11893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:58:22</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44256.79053240741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12260,10 +11958,8 @@
           <t>4205501583</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:57:49</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44256.79015046296</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12331,10 +12027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:57:34</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44256.78997685185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12406,10 +12100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:57:34</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44256.78997685185</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12473,10 +12165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:56:16</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44256.78907407408</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12548,10 +12238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:55:52</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44256.7887962963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12627,10 +12315,8 @@
           <t>4205504494</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:55:48</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44256.78875</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12698,10 +12384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:55:34</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44256.78858796296</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12765,10 +12449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:55:08</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44256.78828703704</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12832,10 +12514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:54:56</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44256.78814814815</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12911,10 +12591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:54:40</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44256.78796296296</v>
       </c>
       <c r="I170" t="n">
         <v>4</v>
@@ -12986,10 +12664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:54:09</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44256.78760416667</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13061,10 +12737,8 @@
           <t>4205501583</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:54:01</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44256.78751157408</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13136,10 +12810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:56</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44256.78745370371</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13215,10 +12887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:35</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44256.78721064814</v>
       </c>
       <c r="I174" t="n">
         <v>7</v>
@@ -13290,10 +12960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:31</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44256.78716435185</v>
       </c>
       <c r="I175" t="n">
         <v>27</v>
@@ -13369,10 +13037,8 @@
           <t>4205498423</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:29</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44256.78714120371</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13444,10 +13110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:22</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44256.78706018518</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13511,10 +13175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:20</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44256.78703703704</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13590,10 +13252,8 @@
           <t>4205493898</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:17</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44256.78700231481</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13669,10 +13329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:16</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44256.78699074074</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13741,10 +13399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:12</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44256.78694444444</v>
       </c>
       <c r="I181" t="n">
         <v>61</v>
@@ -13816,10 +13472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:10</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44256.7869212963</v>
       </c>
       <c r="I182" t="n">
         <v>11</v>
@@ -13892,10 +13546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:06</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44256.786875</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13967,10 +13619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:53:03</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44256.78684027777</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14042,10 +13692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:52:42</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44256.78659722222</v>
       </c>
       <c r="I185" t="n">
         <v>67</v>
